--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_188.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_188.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,616 +488,678 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'B'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1792207792207792</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G'], ['C', 'F', 'C']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(35.080113, 43.578616), (32.920657, 39.410634)]</t>
+          <t>[['Db/5', 'Ab', 'Db/5'], ['Ab', 'Db/5', 'Ab']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(75.880793, 92.97068), (70.203514, 87.246961)]</t>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:04:24.615000', '0:04:33.028000'), ('0:00:00.243000', '0:00:09.120000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_38</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04629186602870813</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj6', 'G:7', 'C:7']]</t>
-        </is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_16</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1025</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:7']]</t>
+          <t>[['C:7', 'F:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(8.54, 12.64)]</t>
+          <t>[['F#:7', 'B:7', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(60.28, 67.56)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:39.910000', '0:00:45.510000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:42.050000', '0:00:45.780000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2132352941176471</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(75.52, 79.7)]</t>
+          <t>[['C:maj', 'G', 'C/5', 'G', 'C/5', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(70.203514, 87.246961)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:04.615532', '0:00:10.052496')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:57.406099', '0:01:08.064058')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(23.04, 26.52), (12.56, 17.2)]</t>
+          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92), (10.36, 18.44)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:40.400000', '0:01:48.820000'), ('0:00:18', '0:00:26.460000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:38.060000', '0:01:45.600000'), ('0:02:14.220000', '0:02:19.560000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06594202898550725</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06911764705882353</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(103.520929, 108.664149)]</t>
+          <t>[['C:min/G', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(86.923922, 92.322562)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:25.800000', '0:00:29.460000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.17907, 21.844739)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(134.22, 139.56)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05137880986937591</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.38, 12.5)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66)]</t>
+          <t>[('0:03:16.576000', '0:04:10.057000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['C:7', 'F:7', 'F:7'], ['G:7', 'C:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Eb:7', 'Ab:7', 'Ab:7'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72), (4.36, 8.26), (50.36, 54.4)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(47.0, 47.79), (32.39, 35.3), (14.4, 16.43)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(54.62, 66.1)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.446618, 18.139715)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'F/5', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1507352941176471</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(5.91585, 14.867142)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1026785714285714</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab:min', 'Ab:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'A:min/b3']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.33, 8.88)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(53.795396, 59.623605)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1990740740740741</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F', 'G:7', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D', 'G']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(34.555, 42.131)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(27.609, 33.046)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(10.12, 27.18)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min', 'A#:min'], ['C#/F', 'A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(24.68, 31.24), (69.0, 74.9), (23.5, 28.56)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(38.12, 45.76), (35.14, 43.9), (41.18, 52.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
